--- a/Framework/testData/UserDetails.xlsx
+++ b/Framework/testData/UserDetails.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\SELENIUM\hybridFrameworkInSelenium\Framework\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\selenium learning\hybridFramework\dataDrivenFrameworkUsingPOM\Framework\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{289E471D-7F83-45FC-847B-A128D3895EFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFFB8B84-360A-4259-BCA1-49401C69E674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,20 +25,34 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>shalook#</t>
+    <t>UserName</t>
   </si>
   <si>
-    <t>amit</t>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Srishti</t>
+  </si>
+  <si>
+    <t>Sri</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -66,8 +80,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -348,18 +363,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="A3:B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
